--- a/template Excel/HR/PerformanceEvaluation.xlsx
+++ b/template Excel/HR/PerformanceEvaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C128432-ABA1-4D19-8A43-0E37532285D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9DA4DC-EB62-428D-9A52-AF7EF2D5D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CB582F70-DBEF-421A-9FEF-BEBB210FF5C3}"/>
   </bookViews>
@@ -38,28 +38,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve"> EvaluationDate</t>
+    <t>PerformanceEvaluationId</t>
   </si>
   <si>
-    <t xml:space="preserve"> ConsciousnessScore</t>
+    <t>EmployeeId</t>
   </si>
   <si>
-    <t xml:space="preserve"> DisciplinaryViolations</t>
+    <t>EvaluationDate</t>
   </si>
   <si>
-    <t xml:space="preserve"> UnexcusedAbsences</t>
+    <t>ConsciousnessScore</t>
   </si>
   <si>
-    <t xml:space="preserve"> WorkPerformanceScore</t>
+    <t>DisciplinaryViolations</t>
   </si>
   <si>
-    <t xml:space="preserve"> OvertimeHours</t>
+    <t>UnexcusedAbsences</t>
   </si>
   <si>
-    <t xml:space="preserve">PerformanceEvaluationId </t>
+    <t>WorkPerformanceScore</t>
   </si>
   <si>
-    <t xml:space="preserve"> EmployeeId</t>
+    <t>OvertimeHours</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,28 +457,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
